--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32827.02228496867</v>
+        <v>6532577.434708762</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32827.02228496867</v>
+        <v>6532577.434708762</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4509.22127763168</v>
+        <v>271439.7920548744</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4509.22127763168</v>
+        <v>271439.7920548744</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959539682.2178333</v>
+        <v>39776593.50623793</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8895.156084544609</v>
+        <v>964397.391289951</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16720.19611786203</v>
+        <v>1751508.041497822</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24545.23615117945</v>
+        <v>2538618.691705694</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32525.59728284026</v>
+        <v>3314476.679036253</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40445.02924708063</v>
+        <v>4101346.610366893</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48364.46121132067</v>
+        <v>4888216.541697565</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56283.89317556075</v>
+        <v>5675086.473028243</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64203.32513980061</v>
+        <v>6461956.404358959</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72288.31880451531</v>
+        <v>7221876.074805663</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>80247.56442936131</v>
+        <v>8005416.494782844</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88184.27686112847</v>
+        <v>8794096.721290719</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96113.10197480516</v>
+        <v>9581207.371498596</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>104041.9270884818</v>
+        <v>10368318.02170647</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>111961.2325427123</v>
+        <v>11155162.77754529</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120195.5994696369</v>
+        <v>11916086.54618645</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>318.0000000000076</v>
@@ -27055,7 +27055,7 @@
         <v>1.128910298575647e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>1.091393642127514e-10</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>-8.020921864292838e-11</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
